--- a/R/analysis/data/Pt_26_Experimental.xlsx
+++ b/R/analysis/data/Pt_26_Experimental.xlsx
@@ -524,7 +524,7 @@
         <v>0.71</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>1.92</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.15</v>
@@ -635,16 +635,16 @@
         <v>3.46</v>
       </c>
       <c r="K4" t="n">
-        <v>6.39</v>
+        <v>0.45</v>
       </c>
       <c r="L4" t="n">
-        <v>0.31</v>
+        <v>4.52</v>
       </c>
       <c r="M4" t="n">
-        <v>4.12</v>
+        <v>0.59</v>
       </c>
       <c r="N4" t="n">
-        <v>0.42</v>
+        <v>2.92</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>1.14</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.4</v>
+        <v>4.4</v>
       </c>
       <c r="M6" t="n">
         <v>0.58</v>
@@ -809,10 +809,10 @@
         <v>1.85</v>
       </c>
       <c r="K7" t="n">
-        <v>6.12</v>
+        <v>0.11</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08</v>
+        <v>4.32</v>
       </c>
       <c r="M7"/>
       <c r="N7" t="n">
@@ -926,7 +926,7 @@
         <v>0.89</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.4</v>
+        <v>4.4</v>
       </c>
       <c r="M9" t="n">
         <v>0.58</v>
@@ -981,10 +981,10 @@
         <v>1.42</v>
       </c>
       <c r="K10" t="n">
-        <v>6.56</v>
+        <v>0.34</v>
       </c>
       <c r="L10" t="n">
-        <v>0.24</v>
+        <v>4.64</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
@@ -1098,7 +1098,7 @@
         <v>0.98</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.83</v>
+        <v>3.83</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>2.7</v>
       </c>
       <c r="K13" t="n">
-        <v>6.07</v>
+        <v>0.65</v>
       </c>
       <c r="L13" t="n">
-        <v>0.46</v>
+        <v>4.29</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>0.76</v>
       </c>
       <c r="L15" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="e">
@@ -1323,14 +1323,14 @@
         <v>4.62</v>
       </c>
       <c r="K16" t="n">
-        <v>5.96</v>
+        <v>1.72</v>
       </c>
       <c r="L16" t="n">
-        <v>1.21</v>
+        <v>4.22</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
         <v>0.08</v>
@@ -1438,7 +1438,7 @@
         <v>2.05</v>
       </c>
       <c r="L18" t="n">
-        <v>-4.75</v>
+        <v>4.75</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="e">
@@ -1491,10 +1491,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K19" t="n">
-        <v>7.52</v>
+        <v>0.8</v>
       </c>
       <c r="L19" t="n">
-        <v>0.56</v>
+        <v>5.31</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="e">
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0.45</v>
       </c>
       <c r="L21" t="n">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="M21" t="n">
         <v>1.53</v>
@@ -1669,16 +1669,16 @@
         <v>1.48</v>
       </c>
       <c r="K22" t="n">
-        <v>6.36</v>
+        <v>0.42</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3</v>
+        <v>4.5</v>
       </c>
       <c r="M22" t="n">
-        <v>6.6</v>
+        <v>0.94</v>
       </c>
       <c r="N22" t="n">
-        <v>0.66</v>
+        <v>4.66</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>1.86</v>
       </c>
       <c r="L24" t="n">
-        <v>-3.67</v>
+        <v>3.67</v>
       </c>
       <c r="M24" t="n">
         <v>0.71</v>
@@ -1845,16 +1845,16 @@
         <v>1.67</v>
       </c>
       <c r="K25" t="n">
-        <v>5.73</v>
+        <v>0.54</v>
       </c>
       <c r="L25" t="n">
-        <v>0.38</v>
+        <v>4.05</v>
       </c>
       <c r="M25" t="n">
-        <v>3.89</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="O25" t="n">
         <v>0.08</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
         <v>0.89</v>
@@ -2021,16 +2021,16 @@
         <v>1.62</v>
       </c>
       <c r="K28" t="n">
-        <v>4.24</v>
+        <v>1.41</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>5.37</v>
+        <v>0.28</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.2</v>
+        <v>3.8</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
